--- a/Original Excel Files/PC.xlsx
+++ b/Original Excel Files/PC.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637B43C3-F747-4F7C-AC91-F8371E828AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="31275" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,19 +193,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -216,6 +226,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -264,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,9 +310,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,6 +362,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,25 +582,23 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -570,185 +615,201 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1999</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7">
-        <v>1999</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>29</v>
+      <c r="F10" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2001</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1980</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
+      <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1964</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1980</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1964</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I34">
+    <sortCondition ref="A1:A34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -760,7 +821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
